--- a/CSCE-3.xlsx
+++ b/CSCE-3.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 8:38:05 AM</t>
+    <t>Report generated on: 7/14/2024, 4:33:02 PM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -293,8 +293,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +762,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>21</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="9">
         <v>3</v>
@@ -803,19 +803,19 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="9">
-        <v>12</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="11">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -837,19 +837,19 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="12">
         <v>6</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <v>21</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -911,19 +911,19 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>36</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>13</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -962,36 +962,36 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>8</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>3</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="12">
         <v>6</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <v>21</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>34</v>
       </c>
     </row>

--- a/CSCE-3.xlsx
+++ b/CSCE-3.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 4:33:02 PM</t>
+    <t>Report generated on: 7/15/2024, 6:59:54 AM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D23" s="9">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="11">
         <v>7</v>
